--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8BB930-5DB9-49FE-8D64-899AFC1A9217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VNJA" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,67 +654,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FE9DB8-6502-4003-891A-173E654011B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,8 +764,26 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +811,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +858,26 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,8 +889,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,8 +924,26 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +971,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,17 +1009,35 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,8 +1065,26 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -974,8 +1093,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1003,8 +1128,26 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1032,8 +1175,26 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1206,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,8 +1241,26 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1103,8 +1288,26 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1132,8 +1335,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1161,8 +1382,26 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1190,8 +1429,26 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1219,8 +1476,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1248,8 +1523,26 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1277,8 +1570,26 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1306,8 +1617,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1335,8 +1664,26 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1364,8 +1711,26 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1393,8 +1758,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1422,8 +1805,26 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1451,8 +1852,26 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1480,8 +1899,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1509,42 +1946,78 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1556,8 +2029,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1569,19 +2048,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1598,8 +2083,26 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1627,8 +2130,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1656,8 +2177,26 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1685,8 +2224,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1714,19 +2271,37 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1743,8 +2318,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,25 +2365,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1801,8 +2412,26 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,8 +2459,26 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,8 +2506,26 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1888,8 +2553,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1917,8 +2600,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1946,37 +2647,73 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>800</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1988,8 +2725,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2001,8 +2744,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2030,8 +2779,26 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2059,13 +2826,31 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2088,13 +2873,31 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2117,8 +2920,26 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2146,8 +2967,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2175,8 +3014,26 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2204,8 +3061,26 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2233,8 +3108,26 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2262,13 +3155,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2291,8 +3202,26 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2304,8 +3233,14 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2333,8 +3268,26 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2362,8 +3315,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2391,8 +3362,26 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2420,8 +3409,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2449,8 +3456,26 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2478,8 +3503,26 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2507,8 +3550,26 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2536,37 +3597,73 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>800</v>
+      </c>
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2594,42 +3691,78 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2657,8 +3790,26 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2670,8 +3821,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2699,8 +3856,26 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2728,8 +3903,26 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2757,8 +3950,26 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2786,8 +3997,26 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2815,8 +4044,26 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2844,8 +4091,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2873,8 +4138,26 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2886,8 +4169,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2915,8 +4204,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2944,8 +4251,26 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2973,8 +4298,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3002,8 +4345,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3015,8 +4376,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3044,8 +4411,26 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3073,8 +4458,26 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3102,8 +4505,26 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3131,16 +4552,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
@@ -3148,20 +4587,38 @@
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3189,8 +4646,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3216,6 +4691,24 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,14 +1029,14 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,11 +1141,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1161,11 +1191,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2140,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2069,7 +2156,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,13 +2388,16 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2304,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2404,7 +2512,7 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2686,13 +2812,13 @@
         <v>800</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,13 +3598,16 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
         <v>-100</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3636,13 +3822,13 @@
         <v>800</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,19 +4813,22 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -4590,11 +4836,11 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4605,8 +4851,8 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4614,11 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,14 +1052,14 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1144,11 +1171,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,11 +1224,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1596,8 +1648,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2150,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2159,7 +2246,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2409,7 +2511,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +2623,7 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2815,13 +2941,13 @@
         <v>800</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3610,7 +3784,7 @@
         <v>-200</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3825,13 +4011,13 @@
         <v>800</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,11 +5073,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -4839,11 +5085,11 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4854,8 +5100,8 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4863,11 +5109,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +807,17 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +869,17 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +931,17 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +961,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1017,17 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1079,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1055,20 +1114,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1082,8 +1141,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1203,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1230,11 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,17 +1254,17 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1206,8 +1286,17 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1227,17 +1316,17 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1348,17 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1378,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1434,17 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1496,17 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,8 +1558,17 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1492,8 +1620,17 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1682,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1744,17 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1651,8 +1806,17 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1704,8 +1868,17 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1930,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1992,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +2054,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2116,17 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,8 +2178,17 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2022,8 +2240,17 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2302,17 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2128,66 +2364,84 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2461,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2485,11 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,23 +2500,23 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2541,17 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2603,17 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2665,17 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2727,17 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2789,17 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2505,23 +2810,23 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2546,31 +2851,40 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2599,41 +2913,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
-        <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2652,8 +2975,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +3037,17 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +3099,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3161,17 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +3223,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3285,17 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2944,20 +3321,20 @@
         <v>800</v>
       </c>
       <c r="K54" s="3">
+        <v>800</v>
+      </c>
+      <c r="L54" s="3">
+        <v>800</v>
+      </c>
+      <c r="M54" s="3">
+        <v>800</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2970,8 +3347,17 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3377,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3401,11 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3065,8 +3457,17 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,8 +3519,17 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,8 +3581,17 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,8 +3643,17 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3705,17 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3767,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3829,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3891,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3953,17 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3542,8 +4015,17 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +4045,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +4101,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +4163,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4225,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +4287,17 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3787,13 +4308,13 @@
         <v>-200</v>
       </c>
       <c r="F72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -3828,8 +4349,17 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4411,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4473,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4535,17 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4014,20 +4571,20 @@
         <v>800</v>
       </c>
       <c r="K76" s="3">
+        <v>800</v>
+      </c>
+      <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>800</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
@@ -4040,8 +4597,17 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4659,84 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4204,8 +4788,17 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4818,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4874,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4936,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4998,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +5060,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +5122,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +5184,17 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4596,8 +5246,17 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5276,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5332,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5394,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5456,17 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5518,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5548,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5604,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5666,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5728,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,34 +5790,43 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -5097,26 +5834,35 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5914,17 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5974,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1123,14 +1143,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1263,11 +1290,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1322,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1325,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1387,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,8 +1607,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1672,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1802,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1815,8 +1867,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1932,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,8 +2257,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2249,8 +2322,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2387,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2373,75 +2452,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2509,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2518,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2819,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2828,7 +2930,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2887,7 +2992,7 @@
         <v>700</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2949,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -2958,7 +3066,7 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,31 +3287,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3417,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3330,13 +3456,13 @@
         <v>800</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,31 +3857,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4117,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4467,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4317,7 +4491,7 @@
         <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4727,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4580,13 +4766,13 @@
         <v>800</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4857,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4797,8 +4992,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5825,8 +6071,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -5834,11 +6080,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -5849,8 +6095,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5858,11 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1144,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1146,14 +1165,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1293,11 +1319,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1325,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1358,11 +1387,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1390,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1675,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,13 +1853,16 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1870,13 +1921,16 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1935,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2260,13 +2329,16 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2325,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2455,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2599,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2608,7 +2694,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2933,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2995,7 +3099,7 @@
         <v>700</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3069,7 +3176,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3435,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3459,13 +3584,13 @@
         <v>800</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,16 +4002,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3886,8 +4031,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,13 +4274,16 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4494,7 +4667,7 @@
         <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4769,13 +4954,13 @@
         <v>800</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4995,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6074,8 +6319,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -6083,11 +6328,11 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -6098,8 +6343,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6107,11 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1168,14 +1188,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,11 +1349,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1390,11 +1420,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,16 +1550,19 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1976,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,13 +2747,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2688,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2697,7 +2784,7 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3028,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3037,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3102,7 +3207,7 @@
         <v>700</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3170,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3179,7 +3287,7 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3526,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3438,8 +3558,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3587,13 +3713,13 @@
         <v>800</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,19 +4148,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4034,8 +4180,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4670,7 +4844,7 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4957,13 +5143,13 @@
         <v>800</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="Q76" s="3">
         <v>100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6322,8 +6568,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -6331,11 +6577,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -6346,8 +6592,8 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6355,11 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,116 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +844,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +921,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,34 +1181,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1191,17 +1231,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1218,8 +1258,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1365,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1352,14 +1406,14 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1438,14 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,14 +1483,14 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1515,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1548,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1621,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,11 +1638,11 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1624,8 +1698,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,13 +1775,19 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1766,8 +1852,14 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +2006,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1979,8 +2083,14 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,8 +2160,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2468,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2545,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2476,8 +2622,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2699,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2618,84 +2776,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2920,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2778,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2819,8 +2993,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3070,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3147,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3224,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3301,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3133,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -3174,8 +3378,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3210,10 +3420,10 @@
         <v>700</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3245,8 +3455,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3281,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3316,8 +3532,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3763,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,14 +3780,14 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3561,11 +3801,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3917,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3716,17 +3968,17 @@
         <v>800</v>
       </c>
       <c r="Q54" s="3">
+        <v>800</v>
+      </c>
+      <c r="R54" s="3">
+        <v>800</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3994,14 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4056,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +4129,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4206,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4283,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4360,14 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4437,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,14 +4454,14 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4183,11 +4475,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4745,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4506,8 +4822,14 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +5159,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4847,10 +5195,10 @@
         <v>-200</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -4888,8 +5236,14 @@
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5467,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5146,17 +5518,17 @@
         <v>800</v>
       </c>
       <c r="Q76" s="3">
+        <v>800</v>
+      </c>
+      <c r="R76" s="3">
+        <v>800</v>
+      </c>
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
@@ -5172,8 +5544,14 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5621,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5390,8 +5780,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5813,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6271,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6348,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6454,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6608,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6685,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7022,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6571,23 +7063,23 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
@@ -6595,20 +7087,26 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7176,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +7251,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,11 +1232,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1237,14 +1256,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1264,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1412,11 +1438,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1444,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1489,11 +1518,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1521,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1644,8 +1680,8 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1704,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,13 +1820,16 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1858,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2089,13 +2140,16 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2166,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,13 +2620,16 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2628,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2782,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2958,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2967,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2999,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3307,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3343,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3352,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -3384,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3426,7 +3530,7 @@
         <v>700</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3461,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3503,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
@@ -3512,7 +3619,7 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3538,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3786,11 +3905,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3807,8 +3926,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3974,13 +4099,13 @@
         <v>800</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -4000,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4135,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4289,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,11 +4605,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4481,8 +4626,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,13 +4905,16 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -4828,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5201,7 +5374,7 @@
         <v>-200</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -5242,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5524,13 +5709,13 @@
         <v>800</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5550,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5786,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6354,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6691,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7069,8 +7314,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -7078,11 +7323,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
@@ -7093,8 +7338,8 @@
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7102,11 +7347,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7257,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,11 +1255,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1259,14 +1279,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1441,11 +1468,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1473,13 +1500,16 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1521,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1616,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,13 +1697,16 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1683,8 +1720,8 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1863,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2112,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2195,11 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2610,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,8 +2693,11 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2859,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -3056,7 +3143,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,31 +3258,34 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,13 +3507,16 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3447,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -3456,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3533,7 +3638,7 @@
         <v>700</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3613,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
@@ -3622,7 +3730,7 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3908,11 +4028,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3929,8 +4049,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4102,13 +4228,13 @@
         <v>800</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4608,11 +4754,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4629,8 +4775,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5063,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5509,16 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
@@ -5377,7 +5551,7 @@
         <v>-200</v>
       </c>
       <c r="O72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +5841,11 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5712,13 +5898,13 @@
         <v>800</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="U76" s="3">
         <v>100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6007,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7317,8 +7563,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -7326,11 +7572,11 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
@@ -7341,8 +7587,8 @@
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7350,11 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,11 +1278,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1282,14 +1302,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1446,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,11 +1498,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1554,11 +1584,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,8 +1760,8 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1906,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2164,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2198,8 +2250,11 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,8 +2766,11 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2938,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3137,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -3146,7 +3233,7 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3270,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -3287,8 +3380,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3519,7 +3621,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3552,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3561,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3641,7 +3746,7 @@
         <v>700</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3724,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>700</v>
@@ -3733,7 +3841,7 @@
         <v>700</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4031,11 +4151,11 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -4052,8 +4172,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4297,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4231,13 +4357,13 @@
         <v>800</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4757,11 +4903,11 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4778,8 +4924,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5221,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5683,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5521,7 +5695,7 @@
         <v>-100</v>
       </c>
       <c r="E72" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F72" s="3">
         <v>-200</v>
@@ -5554,7 +5728,7 @@
         <v>-200</v>
       </c>
       <c r="P72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6027,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5901,13 +6087,13 @@
         <v>800</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="V76" s="3">
         <v>100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6199,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6924,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7566,8 +7812,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
@@ -7575,11 +7821,11 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
@@ -7590,8 +7836,8 @@
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7599,11 +7845,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VNJA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>VNJA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -870,8 +874,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,11 +1301,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1305,14 +1325,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1473,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1501,11 +1528,11 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1533,17 +1560,20 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
@@ -1587,11 +1617,11 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1619,8 +1649,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,17 +1684,18 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1737,13 +1771,16 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1763,8 +1800,8 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,8 +1949,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1995,8 +2038,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,8 +2216,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2253,8 +2305,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2339,8 +2394,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,17 +2750,20 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2769,8 +2839,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2855,8 +2928,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,8 +3017,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3027,99 +3106,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3268,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3227,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3236,7 +3323,7 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -3268,8 +3355,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3366,10 +3459,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -3383,8 +3476,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3726,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3657,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -3666,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3749,7 +3854,7 @@
         <v>700</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3835,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>700</v>
@@ -3844,7 +3952,7 @@
         <v>700</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,37 +4245,40 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -4175,8 +4295,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,8 +4423,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4360,13 +4486,13 @@
         <v>800</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -4386,8 +4512,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4580,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4536,8 +4667,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,8 +4756,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4708,8 +4845,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4794,8 +4934,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,37 +5023,40 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4927,8 +5073,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,8 +5379,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5310,8 +5468,11 @@
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5857,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5698,7 +5872,7 @@
         <v>-100</v>
       </c>
       <c r="F72" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G72" s="3">
         <v>-200</v>
@@ -5731,7 +5905,7 @@
         <v>-200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,8 +6213,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6090,13 +6276,13 @@
         <v>800</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -6116,8 +6302,11 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,99 +6391,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6379,8 +6574,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7141,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7815,8 +8061,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
@@ -7824,11 +8070,11 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
@@ -7839,8 +8085,8 @@
       <c r="Z100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7848,11 +8094,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8186,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
